--- a/Support/PGN 5.6.xlsx
+++ b/Support/PGN 5.6.xlsx
@@ -1120,36 +1120,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,7 +1456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1471,7 +1471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1483,7 +1483,7 @@
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="55" customWidth="1"/>
     <col min="8" max="13" width="14.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
     <col min="16" max="18" width="5.5703125" style="2" customWidth="1"/>
     <col min="19" max="30" width="5.5703125" style="3" customWidth="1"/>
@@ -1509,7 +1509,7 @@
       <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -1533,15 +1533,15 @@
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="O1" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -1560,17 +1560,17 @@
       <c r="E2" s="12">
         <v>8</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="28" t="s">
         <v>18</v>
       </c>
@@ -2885,8 +2885,8 @@
       <c r="G51" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
       <c r="J51" s="74"/>
       <c r="K51" s="74"/>
       <c r="L51" s="74"/>
@@ -2913,8 +2913,8 @@
       <c r="G52" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
       <c r="J52" s="74"/>
       <c r="K52" s="74"/>
       <c r="L52" s="74"/>
@@ -2927,8 +2927,8 @@
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
       <c r="F53" s="56"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
       <c r="J53" s="55"/>
       <c r="K53" s="55"/>
       <c r="L53" s="55"/>
@@ -3270,14 +3270,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
@@ -3309,10 +3309,10 @@
       <c r="C1" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="65" t="s">
         <v>156</v>
       </c>
@@ -3680,6 +3680,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100168D69F7049F5C4D941A1ED43A3EBF4E" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6358b93c66be89da512ed1b0037fb663">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7999f6-dd20-429f-9c50-d27a0c8de317" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7603896104695ce44c6e748634a25e45" ns2:_="">
     <xsd:import namespace="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
@@ -3843,12 +3849,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
   <ds:schemaRefs>
@@ -3858,6 +3858,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F34BA2AD-7737-4D5E-9A5C-0001377CDA31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3873,20 +3889,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>